--- a/Crawling/music/crawled_data/live_flo/live_flo_20220420_110013.xlsx
+++ b/Crawling/music/crawled_data/live_flo/live_flo_20220420_110013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="255">
   <si>
     <t>날짜</t>
   </si>
@@ -34,22 +34,496 @@
     <t>2022-04-20</t>
   </si>
   <si>
+    <t>봄여름가을겨울 (Still Life)</t>
+  </si>
+  <si>
+    <t>LOVE DIVE</t>
+  </si>
+  <si>
+    <t>TOMBOY</t>
+  </si>
+  <si>
+    <t>Feel My Rhythm</t>
+  </si>
+  <si>
+    <t>사랑인가 봐</t>
+  </si>
+  <si>
+    <t>GANADARA (Feat. 아이유)</t>
+  </si>
+  <si>
+    <t>취중고백</t>
+  </si>
+  <si>
+    <t>LOVE me</t>
+  </si>
+  <si>
+    <t>듣고 싶을까</t>
+  </si>
+  <si>
+    <t>INVU</t>
+  </si>
+  <si>
+    <t>SMILEY (Feat. BIBI)</t>
+  </si>
+  <si>
+    <t>드라마</t>
+  </si>
+  <si>
+    <t>다정히 내 이름을 부르면</t>
+  </si>
+  <si>
+    <t>사랑은 늘 도망가</t>
+  </si>
+  <si>
+    <t>ELEVEN</t>
+  </si>
+  <si>
+    <t>STAY (Explicit Ver.)</t>
+  </si>
+  <si>
+    <t>신호등</t>
+  </si>
+  <si>
+    <t>abcdefu (Explicit Ver.)</t>
+  </si>
+  <si>
+    <t>RUN2U</t>
+  </si>
+  <si>
+    <t>눈이 오잖아(Feat.헤이즈)</t>
+  </si>
+  <si>
+    <t>Real Love</t>
+  </si>
+  <si>
+    <t>라일락</t>
+  </si>
+  <si>
+    <t>회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom)</t>
+  </si>
+  <si>
+    <t>우리들의 블루스</t>
+  </si>
+  <si>
+    <t>바라만 본다</t>
+  </si>
+  <si>
+    <t>Next Level</t>
+  </si>
+  <si>
+    <t>strawberry moon</t>
+  </si>
+  <si>
+    <t>너의 번호를 누르고</t>
+  </si>
+  <si>
+    <t>이제 나만 믿어요</t>
+  </si>
+  <si>
+    <t>리무진 (Feat. MINO) (Prod. GRAY)</t>
+  </si>
+  <si>
+    <t>Celebrity</t>
+  </si>
+  <si>
+    <t>버퍼링 (Glitch Mode)</t>
+  </si>
+  <si>
+    <t>너를 생각해</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>언제나 사랑해</t>
+  </si>
+  <si>
+    <t>존재만으로</t>
+  </si>
+  <si>
+    <t>호랑수월가</t>
+  </si>
+  <si>
+    <t>별빛 같은 나의 사랑아</t>
+  </si>
+  <si>
+    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+  </si>
+  <si>
+    <t>MY BAG</t>
+  </si>
+  <si>
+    <t>고백</t>
+  </si>
+  <si>
+    <t>다시 사랑한다면 (김필 Ver.)</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+  </si>
+  <si>
+    <t>Blueming</t>
+  </si>
+  <si>
+    <t>HERO</t>
+  </si>
+  <si>
+    <t>Counting Stars (Feat. Beenzino)</t>
+  </si>
+  <si>
+    <t>Starlight</t>
+  </si>
+  <si>
+    <t>Step Back</t>
+  </si>
+  <si>
+    <t>Dynamite</t>
+  </si>
+  <si>
+    <t>그대라는 사치</t>
+  </si>
+  <si>
+    <t>Love poem</t>
+  </si>
+  <si>
+    <t>Darl+ing</t>
+  </si>
+  <si>
+    <t>That's Hilarious (Explicit Ver.)</t>
+  </si>
+  <si>
+    <t>Bad Habits</t>
+  </si>
+  <si>
+    <t>문득</t>
+  </si>
+  <si>
+    <t>끝사랑</t>
+  </si>
+  <si>
+    <t>너의 모든 순간</t>
+  </si>
+  <si>
+    <t>우리가 헤어져야 했던 이유</t>
+  </si>
+  <si>
+    <t>Bk Love</t>
+  </si>
+  <si>
+    <t>너의 번호를 누르고 (Prod. 영화처럼)</t>
+  </si>
+  <si>
+    <t>스물다섯, 스물하나</t>
+  </si>
+  <si>
+    <t>밤편지</t>
+  </si>
+  <si>
+    <t>찰나가 영원이 될 때 (The Eternal Moment)</t>
+  </si>
+  <si>
+    <t>Dreams Come True</t>
+  </si>
+  <si>
+    <t>봄 사랑 벚꽃 말고</t>
+  </si>
+  <si>
+    <t>밤하늘의 별을 (2020)</t>
+  </si>
+  <si>
+    <t>DAYDREAM</t>
+  </si>
+  <si>
+    <t>헤픈 우연</t>
+  </si>
+  <si>
+    <t>걷고 싶다</t>
+  </si>
+  <si>
+    <t>Dun Dun Dance</t>
+  </si>
+  <si>
+    <t>사계 (Four Seasons)</t>
+  </si>
+  <si>
+    <t>Savage</t>
+  </si>
+  <si>
+    <t>취기를 빌려 (취향저격 그녀 X 산들)</t>
+  </si>
+  <si>
+    <t>아무래도 난</t>
+  </si>
+  <si>
+    <t>북극성 (Never Goodbye)</t>
+  </si>
+  <si>
+    <t>나는 트로트가 싫어요</t>
+  </si>
+  <si>
+    <t>Stronger (What Doesn't Kill You)</t>
+  </si>
+  <si>
+    <t>늦은 밤 너의 집 앞 골목길에서</t>
+  </si>
+  <si>
+    <t>OHAYO MY NIGHT</t>
+  </si>
+  <si>
+    <t>낙하 (with 아이유)</t>
+  </si>
+  <si>
+    <t>Permission to Dance</t>
+  </si>
+  <si>
+    <t>마지막 너의 인사</t>
+  </si>
+  <si>
+    <t>추억은 만남보다 이별에 남아</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>내 손을 잡아</t>
+  </si>
+  <si>
+    <t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</t>
+  </si>
+  <si>
+    <t>겨울잠</t>
+  </si>
+  <si>
+    <t>만남은 쉽고 이별은 어려워 (Feat. Leellamarz) (Prod. TOIL)</t>
+  </si>
+  <si>
+    <t>흰눈</t>
+  </si>
+  <si>
+    <t>비가 오는 날엔 (2021)</t>
+  </si>
+  <si>
+    <t>그날에 나는 맘이 편했을까</t>
+  </si>
+  <si>
+    <t>벚꽃 엔딩</t>
+  </si>
+  <si>
+    <t>내가 아니라도</t>
+  </si>
+  <si>
+    <t>미니카 (Drive)</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>롤린 (Rollin')</t>
+  </si>
+  <si>
+    <t>Can't Control Myself</t>
+  </si>
+  <si>
+    <t>밝게 빛나는 별이 되어 비춰줄게</t>
+  </si>
+  <si>
+    <t>My Universe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BIGBANG (빅뱅) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IVE (아이브) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (여자)아이들 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Red Velvet (레드벨벳) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 멜로망스 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 박재범 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 김민석 (멜로망스) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BE'O (비오) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MSG워너비(M.O.M) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 태연 (TAEYEON) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YENA (최예나) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아이유 (IU) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전건호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 임영웅 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Justin Bieber </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이무진 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GAYLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STAYC (스테이씨) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오마이걸 (OH MY GIRL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sokodomo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aespa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 김나영 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NCT DREAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 주시크 (Joosiq) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 케이시 (Kassy) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 원슈타인 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 탑현 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 폴킴 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 방탄소년단 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AKMU (악뮤) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 태일 (TAEIL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GOT the beat </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 세븐틴 (SEVENTEEN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charlie Puth </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ed Sheeran </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 성시경 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 비비 (BIBI) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #안녕 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 자우림 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 마크툽 (MAKTUB) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경서 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 하이라이트 (Highlight) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 헤이즈 (Heize) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 산들 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 임창정 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kelly Clarkson </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 노을 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PATEKO (파테코) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정동하 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anne-Marie </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 장범준 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 베이식 (Basick) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 먼데이 키즈 (Monday Kiz) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이예준 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 버스커 버스커 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 주호 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 브레이브걸스 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 송이한 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 봄여름가을겨울 (Still Life) </t>
   </si>
   <si>
     <t xml:space="preserve"> LOVE DIVE </t>
   </si>
   <si>
-    <t xml:space="preserve"> TOMBOY </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feel My Rhythm </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑인가 봐 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GANADARA (Feat. 아이유) </t>
+    <t xml:space="preserve"> I NEVER DIE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘The ReVe Festival 2022 - Feel My Rhythm’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사랑인가 봐 (사내맞선 OST 스페셜 트랙) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GANADARA </t>
   </si>
   <si>
     <t xml:space="preserve"> 취중고백 </t>
@@ -61,34 +535,34 @@
     <t xml:space="preserve"> 듣고 싶을까 </t>
   </si>
   <si>
-    <t xml:space="preserve"> INVU </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SMILEY (Feat. BIBI) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 드라마 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다정히 내 이름을 부르면 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑은 늘 도망가 </t>
+    <t xml:space="preserve"> INVU - The 3rd Album </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ˣ‿ˣ (SMiLEY) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 조각집 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다정히 내 이름을 부르면 (경서예지 x 전건호) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 신사와 아가씨 OST Part.2 </t>
   </si>
   <si>
     <t xml:space="preserve"> ELEVEN </t>
   </si>
   <si>
-    <t xml:space="preserve"> STAY (Explicit Ver.) </t>
+    <t xml:space="preserve"> STAY </t>
   </si>
   <si>
     <t xml:space="preserve"> 신호등 </t>
   </si>
   <si>
-    <t xml:space="preserve"> abcdefu (Explicit Ver.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUN2U </t>
+    <t xml:space="preserve"> abcdefu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YOUNG-LUV.COM </t>
   </si>
   <si>
     <t xml:space="preserve"> 눈이 오잖아(Feat.헤이즈) </t>
@@ -97,16 +571,16 @@
     <t xml:space="preserve"> Real Love </t>
   </si>
   <si>
-    <t xml:space="preserve"> 라일락 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 우리들의 블루스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 바라만 본다 </t>
+    <t xml:space="preserve"> IU 5th Album 'LILAC' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 쇼미더머니 10 Episode 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IM HERO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MSG워너비 1집 </t>
   </si>
   <si>
     <t xml:space="preserve"> Next Level </t>
@@ -118,16 +592,13 @@
     <t xml:space="preserve"> 너의 번호를 누르고 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 이제 나만 믿어요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 리무진 (Feat. MINO) (Prod. GRAY) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Celebrity </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 버퍼링 (Glitch Mode) </t>
+    <t xml:space="preserve"> 내일은 미스터트롯 우승자 특전곡 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 쇼미더머니 10 Episode 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Glitch Mode - The 2nd Album </t>
   </si>
   <si>
     <t xml:space="preserve"> 너를 생각해 </t>
@@ -136,10 +607,10 @@
     <t xml:space="preserve"> Weekend </t>
   </si>
   <si>
-    <t xml:space="preserve"> 언제나 사랑해 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 존재만으로 </t>
+    <t xml:space="preserve"> 조영수 리메이크 프로젝트 Part.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 4 </t>
   </si>
   <si>
     <t xml:space="preserve"> 호랑수월가 </t>
@@ -148,85 +619,76 @@
     <t xml:space="preserve"> 별빛 같은 나의 사랑아 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 모든 날, 모든 순간 (Every day, Every Moment) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MY BAG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 고백 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다시 사랑한다면 (김필 Ver.) </t>
+    <t xml:space="preserve"> '키스 먼저 할까요?' OST Part.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 세 번째 '고백' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사랑의 콜센타 PART56 </t>
   </si>
   <si>
     <t xml:space="preserve"> Butter </t>
   </si>
   <si>
-    <t xml:space="preserve"> 어떻게 이별까지 사랑하겠어, 널 사랑하는 거지 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blueming </t>
+    <t xml:space="preserve"> 항해 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Love poem </t>
   </si>
   <si>
     <t xml:space="preserve"> HERO </t>
   </si>
   <si>
-    <t xml:space="preserve"> Counting Stars (Feat. Beenzino) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starlight </t>
+    <t xml:space="preserve"> Counting Stars </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 1 </t>
   </si>
   <si>
     <t xml:space="preserve"> Step Back </t>
   </si>
   <si>
-    <t xml:space="preserve"> Dynamite </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 그대라는 사치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love poem </t>
+    <t xml:space="preserve"> Dynamite (DayTime Version) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사랑의 콜센타 PART62 </t>
   </si>
   <si>
     <t xml:space="preserve"> Darl+ing </t>
   </si>
   <si>
-    <t xml:space="preserve"> That's Hilarious (Explicit Ver.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bad Habits </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 문득 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 끝사랑 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 너의 모든 순간 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 우리가 헤어져야 했던 이유 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bk Love </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 너의 번호를 누르고 (Prod. 영화처럼) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스물다섯, 스물하나 </t>
+    <t xml:space="preserve"> That's Hilarious </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bipolar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사랑의 콜센타 PART61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 별에서 온 그대 (SBS 수목드라마) OST - Part.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 그 해 우리는 OST Part.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 뽕숭아학당 PART23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Goodbye, grief. </t>
   </si>
   <si>
     <t xml:space="preserve"> 밤편지 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 찰나가 영원이 될 때 (The Eternal Moment) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dreams Come True </t>
+    <t xml:space="preserve"> Red Moon : Beyond The Light </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dreams Come True - SM STATION </t>
   </si>
   <si>
     <t xml:space="preserve"> 봄 사랑 벚꽃 말고 </t>
@@ -238,19 +700,19 @@
     <t xml:space="preserve"> DAYDREAM </t>
   </si>
   <si>
-    <t xml:space="preserve"> 헤픈 우연 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 걷고 싶다 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dun Dun Dance </t>
+    <t xml:space="preserve"> HAPPEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사랑의 콜센타 PART39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dear OHMYGIRL </t>
   </si>
   <si>
     <t xml:space="preserve"> 사계 (Four Seasons) </t>
   </si>
   <si>
-    <t xml:space="preserve"> Savage </t>
+    <t xml:space="preserve"> Savage - The 1st Mini Album </t>
   </si>
   <si>
     <t xml:space="preserve"> 취기를 빌려 (취향저격 그녀 X 산들) </t>
@@ -259,13 +721,10 @@
     <t xml:space="preserve"> 아무래도 난 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 북극성 (Never Goodbye) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 나는 트로트가 싫어요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stronger (What Doesn't Kill You) </t>
+    <t xml:space="preserve"> 별거 없던 그 하루로 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stronger (Deluxe Version) </t>
   </si>
   <si>
     <t xml:space="preserve"> 늦은 밤 너의 집 앞 골목길에서 </t>
@@ -274,31 +733,25 @@
     <t xml:space="preserve"> OHAYO MY NIGHT </t>
   </si>
   <si>
-    <t xml:space="preserve"> 낙하 (with 아이유) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Permission to Dance </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 마지막 너의 인사 </t>
+    <t xml:space="preserve"> NEXT EPISODE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Butter / Permission to Dance </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 우리들의 블루스 OST Part 2 </t>
   </si>
   <si>
     <t xml:space="preserve"> 추억은 만남보다 이별에 남아 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 2002 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 내 손을 잡아 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 겨울잠 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 만남은 쉽고 이별은 어려워 (Feat. Leellamarz) (Prod. TOIL) </t>
+    <t xml:space="preserve"> Speak Your Mind  (Deluxe) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 최고의 사랑 OST - Part.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 멜로가 체질 OST Part 3 </t>
   </si>
   <si>
     <t xml:space="preserve"> 흰눈 </t>
@@ -310,19 +763,13 @@
     <t xml:space="preserve"> 그날에 나는 맘이 편했을까 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 벚꽃 엔딩 </t>
+    <t xml:space="preserve"> 버스커 버스커 1집 </t>
   </si>
   <si>
     <t xml:space="preserve"> 내가 아니라도 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 미니카 (Drive) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arcade </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 롤린 (Rollin') </t>
+    <t xml:space="preserve"> Rollin' </t>
   </si>
   <si>
     <t xml:space="preserve"> Can't Control Myself </t>
@@ -332,339 +779,6 @@
   </si>
   <si>
     <t xml:space="preserve"> My Universe </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BIGBANG (빅뱅) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IVE (아이브) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (여자)아이들 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Red Velvet (레드벨벳) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 멜로망스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 박재범 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 김민석 (멜로망스) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BE'O (비오) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MSG워너비(M.O.M) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 태연 (TAEYEON) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YENA (최예나) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아이유 (IU) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 전건호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 임영웅 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Justin Bieber </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이무진 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GAYLE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STAYC (스테이씨) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 오마이걸 (OH MY GIRL) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sokodomo </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aespa </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 김나영 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NCT DREAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 주시크 (Joosiq) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 케이시 (Kassy) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 원슈타인 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 탑현 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 폴킴 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 방탄소년단 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AKMU (악뮤) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 태일 (TAEIL) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GOT the beat </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 세븐틴 (SEVENTEEN) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Charlie Puth </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ed Sheeran </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 성시경 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 비비 (BIBI) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #안녕 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 자우림 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 마크툽 (MAKTUB) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 경서 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 하이라이트 (Highlight) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 헤이즈 (Heize) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 산들 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 임창정 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kelly Clarkson </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 노을 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PATEKO (파테코) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 정동하 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anne-Marie </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 장범준 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 베이식 (Basick) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 먼데이 키즈 (Monday Kiz) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이예준 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 버스커 버스커 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 주호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 브레이브걸스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 송이한 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I NEVER DIE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘The ReVe Festival 2022 - Feel My Rhythm’ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑인가 봐 (사내맞선 OST 스페셜 트랙) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GANADARA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INVU - The 3rd Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ˣ‿ˣ (SMiLEY) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조각집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다정히 내 이름을 부르면 (경서예지 x 전건호) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신사와 아가씨 OST Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STAY </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> abcdefu </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YOUNG-LUV.COM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IU 5th Album 'LILAC' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쇼미더머니 10 Episode 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IM HERO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MSG워너비 1집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 내일은 미스터트롯 우승자 특전곡 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쇼미더머니 10 Episode 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Glitch Mode - The 2nd Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조영수 리메이크 프로젝트 Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '키스 먼저 할까요?' OST Part.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 세 번째 '고백' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 항해 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Counting Stars </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dynamite (DayTime Version) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That's Hilarious </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bipolar </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별에서 온 그대 (SBS 수목드라마) OST - Part.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 그 해 우리는 OST Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뽕숭아학당 PART23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Goodbye, grief. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Red Moon : Beyond The Light </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dreams Come True - SM STATION </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAPPEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dear OHMYGIRL </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Savage - The 1st Mini Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별거 없던 그 하루로 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stronger (Deluxe Version) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NEXT EPISODE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Butter / Permission to Dance </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 우리들의 블루스 OST Part 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Speak Your Mind  (Deluxe) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 최고의 사랑 OST - Part.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 멜로가 체질 OST Part 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 버스커 버스커 1집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rollin' </t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1173,7 @@
         <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1076,7 +1190,7 @@
         <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1093,7 +1207,7 @@
         <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1110,7 +1224,7 @@
         <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1127,7 +1241,7 @@
         <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1144,7 +1258,7 @@
         <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1161,7 +1275,7 @@
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1178,7 +1292,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1195,7 +1309,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1212,7 +1326,7 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1229,7 +1343,7 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1246,7 +1360,7 @@
         <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1263,7 +1377,7 @@
         <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1280,7 +1394,7 @@
         <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1297,7 +1411,7 @@
         <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1314,7 +1428,7 @@
         <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1331,7 +1445,7 @@
         <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1348,7 +1462,7 @@
         <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1365,7 +1479,7 @@
         <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1382,7 +1496,7 @@
         <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1399,7 +1513,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1416,7 +1530,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1433,7 +1547,7 @@
         <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1450,7 +1564,7 @@
         <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1467,7 +1581,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1484,7 +1598,7 @@
         <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1501,7 +1615,7 @@
         <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1518,7 +1632,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1535,7 +1649,7 @@
         <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1552,7 +1666,7 @@
         <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1569,7 +1683,7 @@
         <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1586,7 +1700,7 @@
         <v>128</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1603,7 +1717,7 @@
         <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1620,7 +1734,7 @@
         <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1637,7 +1751,7 @@
         <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1654,7 +1768,7 @@
         <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1671,7 +1785,7 @@
         <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1688,7 +1802,7 @@
         <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1705,7 +1819,7 @@
         <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1722,7 +1836,7 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1739,7 +1853,7 @@
         <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1756,7 +1870,7 @@
         <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1773,7 +1887,7 @@
         <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1790,7 +1904,7 @@
         <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1807,7 +1921,7 @@
         <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1824,7 +1938,7 @@
         <v>119</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1841,7 +1955,7 @@
         <v>113</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1858,7 +1972,7 @@
         <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1875,7 +1989,7 @@
         <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1892,7 +2006,7 @@
         <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1909,7 +2023,7 @@
         <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1926,7 +2040,7 @@
         <v>117</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1943,7 +2057,7 @@
         <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1960,7 +2074,7 @@
         <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1977,7 +2091,7 @@
         <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1994,7 +2108,7 @@
         <v>113</v>
       </c>
       <c r="E57" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2011,7 +2125,7 @@
         <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2028,7 +2142,7 @@
         <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2045,7 +2159,7 @@
         <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2062,7 +2176,7 @@
         <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2079,7 +2193,7 @@
         <v>143</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2096,7 +2210,7 @@
         <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2113,7 +2227,7 @@
         <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2130,7 +2244,7 @@
         <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2147,7 +2261,7 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2164,7 +2278,7 @@
         <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2181,7 +2295,7 @@
         <v>146</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2198,7 +2312,7 @@
         <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2215,7 +2329,7 @@
         <v>148</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2232,7 +2346,7 @@
         <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2249,7 +2363,7 @@
         <v>124</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2266,7 +2380,7 @@
         <v>115</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2283,7 +2397,7 @@
         <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2300,7 +2414,7 @@
         <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2317,7 +2431,7 @@
         <v>129</v>
       </c>
       <c r="E76" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2334,7 +2448,7 @@
         <v>128</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2351,7 +2465,7 @@
         <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2368,7 +2482,7 @@
         <v>151</v>
       </c>
       <c r="E79" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2385,7 +2499,7 @@
         <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2402,7 +2516,7 @@
         <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>85</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2419,7 +2533,7 @@
         <v>135</v>
       </c>
       <c r="E82" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2436,7 +2550,7 @@
         <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2453,7 +2567,7 @@
         <v>148</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2470,7 +2584,7 @@
         <v>154</v>
       </c>
       <c r="E85" t="s">
-        <v>89</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2487,7 +2601,7 @@
         <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2504,7 +2618,7 @@
         <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2521,7 +2635,7 @@
         <v>156</v>
       </c>
       <c r="E88" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2538,7 +2652,7 @@
         <v>117</v>
       </c>
       <c r="E89" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2555,7 +2669,7 @@
         <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2572,7 +2686,7 @@
         <v>158</v>
       </c>
       <c r="E91" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2589,7 +2703,7 @@
         <v>148</v>
       </c>
       <c r="E92" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2606,7 +2720,7 @@
         <v>159</v>
       </c>
       <c r="E93" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2623,7 +2737,7 @@
         <v>160</v>
       </c>
       <c r="E94" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2640,7 +2754,7 @@
         <v>161</v>
       </c>
       <c r="E95" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2657,7 +2771,7 @@
         <v>128</v>
       </c>
       <c r="E96" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2674,7 +2788,7 @@
         <v>128</v>
       </c>
       <c r="E97" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2691,7 +2805,7 @@
         <v>162</v>
       </c>
       <c r="E98" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2708,7 +2822,7 @@
         <v>115</v>
       </c>
       <c r="E99" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2725,7 +2839,7 @@
         <v>163</v>
       </c>
       <c r="E100" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2742,7 +2856,7 @@
         <v>134</v>
       </c>
       <c r="E101" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/live_flo/live_flo_20220420_110013.xlsx
+++ b/Crawling/music/crawled_data/live_flo/live_flo_20220420_110013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="216">
   <si>
     <t>날짜</t>
   </si>
@@ -334,451 +334,334 @@
     <t>My Universe</t>
   </si>
   <si>
-    <t xml:space="preserve"> BIGBANG (빅뱅) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IVE (아이브) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (여자)아이들 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Red Velvet (레드벨벳) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 멜로망스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 박재범 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 김민석 (멜로망스) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BE'O (비오) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MSG워너비(M.O.M) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 태연 (TAEYEON) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YENA (최예나) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아이유 (IU) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 전건호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 임영웅 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Justin Bieber </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이무진 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GAYLE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STAYC (스테이씨) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 오마이걸 (OH MY GIRL) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sokodomo </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aespa </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 김나영 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NCT DREAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 주시크 (Joosiq) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 케이시 (Kassy) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 원슈타인 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 탑현 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 폴킴 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 방탄소년단 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AKMU (악뮤) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 태일 (TAEIL) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GOT the beat </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 세븐틴 (SEVENTEEN) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Charlie Puth </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ed Sheeran </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 성시경 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 비비 (BIBI) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #안녕 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 자우림 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 마크툽 (MAKTUB) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 경서 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 하이라이트 (Highlight) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 헤이즈 (Heize) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 산들 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 임창정 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kelly Clarkson </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 노을 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PATEKO (파테코) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 정동하 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anne-Marie </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 장범준 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 베이식 (Basick) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 먼데이 키즈 (Monday Kiz) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이예준 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 버스커 버스커 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 주호 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 브레이브걸스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 송이한 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 봄여름가을겨울 (Still Life) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOVE DIVE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I NEVER DIE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘The ReVe Festival 2022 - Feel My Rhythm’ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑인가 봐 (사내맞선 OST 스페셜 트랙) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GANADARA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 취중고백 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOVE me </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 듣고 싶을까 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INVU - The 3rd Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ˣ‿ˣ (SMiLEY) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조각집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다정히 내 이름을 부르면 (경서예지 x 전건호) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신사와 아가씨 OST Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELEVEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STAY </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신호등 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> abcdefu </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YOUNG-LUV.COM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 눈이 오잖아(Feat.헤이즈) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Real Love </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IU 5th Album 'LILAC' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쇼미더머니 10 Episode 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IM HERO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MSG워너비 1집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Next Level </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> strawberry moon </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 너의 번호를 누르고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 내일은 미스터트롯 우승자 특전곡 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쇼미더머니 10 Episode 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Glitch Mode - The 2nd Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 너를 생각해 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Weekend </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조영수 리메이크 프로젝트 Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 호랑수월가 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별빛 같은 나의 사랑아 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '키스 먼저 할까요?' OST Part.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 세 번째 '고백' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Butter </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 항해 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love poem </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HERO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Counting Stars </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Step Back </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dynamite (DayTime Version) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Darl+ing </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That's Hilarious </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bipolar </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별에서 온 그대 (SBS 수목드라마) OST - Part.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 그 해 우리는 OST Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뽕숭아학당 PART23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Goodbye, grief. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 밤편지 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Red Moon : Beyond The Light </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dreams Come True - SM STATION </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 봄 사랑 벚꽃 말고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 밤하늘의 별을 (2020) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DAYDREAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAPPEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dear OHMYGIRL </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사계 (Four Seasons) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Savage - The 1st Mini Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 취기를 빌려 (취향저격 그녀 X 산들) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아무래도 난 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별거 없던 그 하루로 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stronger (Deluxe Version) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 늦은 밤 너의 집 앞 골목길에서 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OHAYO MY NIGHT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NEXT EPISODE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Butter / Permission to Dance </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 우리들의 블루스 OST Part 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 추억은 만남보다 이별에 남아 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Speak Your Mind  (Deluxe) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 최고의 사랑 OST - Part.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 멜로가 체질 OST Part 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 흰눈 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 비가 오는 날엔 (2021) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 그날에 나는 맘이 편했을까 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 버스커 버스커 1집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 내가 아니라도 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rollin' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Can't Control Myself </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 밝게 빛나는 별이 되어 비춰줄게 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> My Universe </t>
+    <t>BIGBANG (빅뱅)</t>
+  </si>
+  <si>
+    <t>IVE (아이브)</t>
+  </si>
+  <si>
+    <t>(여자)아이들</t>
+  </si>
+  <si>
+    <t>Red Velvet (레드벨벳)</t>
+  </si>
+  <si>
+    <t>멜로망스</t>
+  </si>
+  <si>
+    <t>박재범</t>
+  </si>
+  <si>
+    <t>김민석 (멜로망스)</t>
+  </si>
+  <si>
+    <t>BE'O (비오)</t>
+  </si>
+  <si>
+    <t>MSG워너비(M.O.M)</t>
+  </si>
+  <si>
+    <t>태연 (TAEYEON)</t>
+  </si>
+  <si>
+    <t>YENA (최예나)</t>
+  </si>
+  <si>
+    <t>아이유 (IU)</t>
+  </si>
+  <si>
+    <t>전건호</t>
+  </si>
+  <si>
+    <t>임영웅</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>이무진</t>
+  </si>
+  <si>
+    <t>GAYLE</t>
+  </si>
+  <si>
+    <t>STAYC (스테이씨)</t>
+  </si>
+  <si>
+    <t>오마이걸 (OH MY GIRL)</t>
+  </si>
+  <si>
+    <t>sokodomo</t>
+  </si>
+  <si>
+    <t>aespa</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>NCT DREAM</t>
+  </si>
+  <si>
+    <t>주시크 (Joosiq)</t>
+  </si>
+  <si>
+    <t>케이시 (Kassy)</t>
+  </si>
+  <si>
+    <t>원슈타인</t>
+  </si>
+  <si>
+    <t>탑현</t>
+  </si>
+  <si>
+    <t>폴킴</t>
+  </si>
+  <si>
+    <t>방탄소년단</t>
+  </si>
+  <si>
+    <t>AKMU (악뮤)</t>
+  </si>
+  <si>
+    <t>태일 (TAEIL)</t>
+  </si>
+  <si>
+    <t>GOT the beat</t>
+  </si>
+  <si>
+    <t>세븐틴 (SEVENTEEN)</t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>성시경</t>
+  </si>
+  <si>
+    <t>비비 (BIBI)</t>
+  </si>
+  <si>
+    <t>#안녕</t>
+  </si>
+  <si>
+    <t>자우림</t>
+  </si>
+  <si>
+    <t>마크툽 (MAKTUB)</t>
+  </si>
+  <si>
+    <t>경서</t>
+  </si>
+  <si>
+    <t>하이라이트 (Highlight)</t>
+  </si>
+  <si>
+    <t>헤이즈 (Heize)</t>
+  </si>
+  <si>
+    <t>산들</t>
+  </si>
+  <si>
+    <t>임창정</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>노을</t>
+  </si>
+  <si>
+    <t>PATEKO (파테코)</t>
+  </si>
+  <si>
+    <t>정동하</t>
+  </si>
+  <si>
+    <t>Anne-Marie</t>
+  </si>
+  <si>
+    <t>장범준</t>
+  </si>
+  <si>
+    <t>베이식 (Basick)</t>
+  </si>
+  <si>
+    <t>먼데이 키즈 (Monday Kiz)</t>
+  </si>
+  <si>
+    <t>이예준</t>
+  </si>
+  <si>
+    <t>버스커 버스커</t>
+  </si>
+  <si>
+    <t>주호</t>
+  </si>
+  <si>
+    <t>브레이브걸스</t>
+  </si>
+  <si>
+    <t>송이한</t>
+  </si>
+  <si>
+    <t>I NEVER DIE</t>
+  </si>
+  <si>
+    <t>‘The ReVe Festival 2022 - Feel My Rhythm’</t>
+  </si>
+  <si>
+    <t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</t>
+  </si>
+  <si>
+    <t>GANADARA</t>
+  </si>
+  <si>
+    <t>INVU - The 3rd Album</t>
+  </si>
+  <si>
+    <t>ˣ‿ˣ (SMiLEY)</t>
+  </si>
+  <si>
+    <t>조각집</t>
+  </si>
+  <si>
+    <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
+  </si>
+  <si>
+    <t>신사와 아가씨 OST Part.2</t>
+  </si>
+  <si>
+    <t>STAY</t>
+  </si>
+  <si>
+    <t>abcdefu</t>
+  </si>
+  <si>
+    <t>YOUNG-LUV.COM</t>
+  </si>
+  <si>
+    <t>IU 5th Album 'LILAC'</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Episode 2</t>
+  </si>
+  <si>
+    <t>IM HERO</t>
+  </si>
+  <si>
+    <t>MSG워너비 1집</t>
+  </si>
+  <si>
+    <t>내일은 미스터트롯 우승자 특전곡</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Episode 3</t>
+  </si>
+  <si>
+    <t>Glitch Mode - The 2nd Album</t>
+  </si>
+  <si>
+    <t>조영수 리메이크 프로젝트 Part.2</t>
+  </si>
+  <si>
+    <t>스물다섯 스물하나 OST Part 4</t>
+  </si>
+  <si>
+    <t>'키스 먼저 할까요?' OST Part.3</t>
+  </si>
+  <si>
+    <t>세 번째 '고백'</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART56</t>
+  </si>
+  <si>
+    <t>항해</t>
+  </si>
+  <si>
+    <t>Counting Stars</t>
+  </si>
+  <si>
+    <t>스물다섯 스물하나 OST Part 1</t>
+  </si>
+  <si>
+    <t>Dynamite (DayTime Version)</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART62</t>
+  </si>
+  <si>
+    <t>That's Hilarious</t>
+  </si>
+  <si>
+    <t>Bipolar</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART61</t>
+  </si>
+  <si>
+    <t>별에서 온 그대 (SBS 수목드라마) OST - Part.7</t>
+  </si>
+  <si>
+    <t>그 해 우리는 OST Part.2</t>
+  </si>
+  <si>
+    <t>뽕숭아학당 PART23</t>
+  </si>
+  <si>
+    <t>Goodbye, grief.</t>
+  </si>
+  <si>
+    <t>Red Moon : Beyond The Light</t>
+  </si>
+  <si>
+    <t>Dreams Come True - SM STATION</t>
+  </si>
+  <si>
+    <t>HAPPEN</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART39</t>
+  </si>
+  <si>
+    <t>Dear OHMYGIRL</t>
+  </si>
+  <si>
+    <t>Savage - The 1st Mini Album</t>
+  </si>
+  <si>
+    <t>별거 없던 그 하루로</t>
+  </si>
+  <si>
+    <t>Stronger (Deluxe Version)</t>
+  </si>
+  <si>
+    <t>NEXT EPISODE</t>
+  </si>
+  <si>
+    <t>Butter / Permission to Dance</t>
+  </si>
+  <si>
+    <t>우리들의 블루스 OST Part 2</t>
+  </si>
+  <si>
+    <t>Speak Your Mind  (Deluxe)</t>
+  </si>
+  <si>
+    <t>최고의 사랑 OST - Part.4</t>
+  </si>
+  <si>
+    <t>멜로가 체질 OST Part 3</t>
+  </si>
+  <si>
+    <t>버스커 버스커 1집</t>
+  </si>
+  <si>
+    <t>Rollin'</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1056,7 @@
         <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1190,7 +1073,7 @@
         <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1207,7 +1090,7 @@
         <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1224,7 +1107,7 @@
         <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1241,7 +1124,7 @@
         <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1258,7 +1141,7 @@
         <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1275,7 +1158,7 @@
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1292,7 +1175,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1309,7 +1192,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1326,7 +1209,7 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1343,7 +1226,7 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1360,7 +1243,7 @@
         <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1377,7 +1260,7 @@
         <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1394,7 +1277,7 @@
         <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1411,7 +1294,7 @@
         <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1428,7 +1311,7 @@
         <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1445,7 +1328,7 @@
         <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1462,7 +1345,7 @@
         <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1479,7 +1362,7 @@
         <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1496,7 +1379,7 @@
         <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1513,7 +1396,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1530,7 +1413,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1547,7 +1430,7 @@
         <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1564,7 +1447,7 @@
         <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1581,7 +1464,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1598,7 +1481,7 @@
         <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1615,7 +1498,7 @@
         <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1632,7 +1515,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1649,7 +1532,7 @@
         <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1666,7 +1549,7 @@
         <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1683,7 +1566,7 @@
         <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1700,7 +1583,7 @@
         <v>128</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1717,7 +1600,7 @@
         <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1734,7 +1617,7 @@
         <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1751,7 +1634,7 @@
         <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1768,7 +1651,7 @@
         <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1785,7 +1668,7 @@
         <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1802,7 +1685,7 @@
         <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1819,7 +1702,7 @@
         <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1836,7 +1719,7 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1853,7 +1736,7 @@
         <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1870,7 +1753,7 @@
         <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1887,7 +1770,7 @@
         <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1904,7 +1787,7 @@
         <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1921,7 +1804,7 @@
         <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1938,7 +1821,7 @@
         <v>119</v>
       </c>
       <c r="E47" t="s">
-        <v>207</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1955,7 +1838,7 @@
         <v>113</v>
       </c>
       <c r="E48" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1972,7 +1855,7 @@
         <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1989,7 +1872,7 @@
         <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2006,7 +1889,7 @@
         <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2023,7 +1906,7 @@
         <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2040,7 +1923,7 @@
         <v>117</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2057,7 +1940,7 @@
         <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2074,7 +1957,7 @@
         <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2090,8 +1973,9 @@
       <c r="D56" t="s">
         <v>140</v>
       </c>
-      <c r="E56" t="s">
-        <v>215</v>
+      <c r="E56">
+        <f/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2108,7 +1992,7 @@
         <v>113</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2125,7 +2009,7 @@
         <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2142,7 +2026,7 @@
         <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2159,7 +2043,7 @@
         <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2176,7 +2060,7 @@
         <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2193,7 +2077,7 @@
         <v>143</v>
       </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2210,7 +2094,7 @@
         <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2227,7 +2111,7 @@
         <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2244,7 +2128,7 @@
         <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2261,7 +2145,7 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2278,7 +2162,7 @@
         <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2295,7 +2179,7 @@
         <v>146</v>
       </c>
       <c r="E68" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2312,7 +2196,7 @@
         <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>227</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2329,7 +2213,7 @@
         <v>148</v>
       </c>
       <c r="E70" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2346,7 +2230,7 @@
         <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2363,7 +2247,7 @@
         <v>124</v>
       </c>
       <c r="E72" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2380,7 +2264,7 @@
         <v>115</v>
       </c>
       <c r="E73" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2397,7 +2281,7 @@
         <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2414,7 +2298,7 @@
         <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2431,7 +2315,7 @@
         <v>129</v>
       </c>
       <c r="E76" t="s">
-        <v>234</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2448,7 +2332,7 @@
         <v>128</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2465,7 +2349,7 @@
         <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2482,7 +2366,7 @@
         <v>151</v>
       </c>
       <c r="E79" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2499,7 +2383,7 @@
         <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>237</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2516,7 +2400,7 @@
         <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>238</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2533,7 +2417,7 @@
         <v>135</v>
       </c>
       <c r="E82" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2550,7 +2434,7 @@
         <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2567,7 +2451,7 @@
         <v>148</v>
       </c>
       <c r="E84" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2584,7 +2468,7 @@
         <v>154</v>
       </c>
       <c r="E85" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2601,7 +2485,7 @@
         <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2618,7 +2502,7 @@
         <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2635,7 +2519,7 @@
         <v>156</v>
       </c>
       <c r="E88" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2652,7 +2536,7 @@
         <v>117</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2669,7 +2553,7 @@
         <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2686,7 +2570,7 @@
         <v>158</v>
       </c>
       <c r="E91" t="s">
-        <v>246</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2703,7 +2587,7 @@
         <v>148</v>
       </c>
       <c r="E92" t="s">
-        <v>247</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2720,7 +2604,7 @@
         <v>159</v>
       </c>
       <c r="E93" t="s">
-        <v>248</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2737,7 +2621,7 @@
         <v>160</v>
       </c>
       <c r="E94" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2754,7 +2638,7 @@
         <v>161</v>
       </c>
       <c r="E95" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2771,7 +2655,7 @@
         <v>128</v>
       </c>
       <c r="E96" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2788,7 +2672,7 @@
         <v>128</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2805,7 +2689,7 @@
         <v>162</v>
       </c>
       <c r="E98" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2822,7 +2706,7 @@
         <v>115</v>
       </c>
       <c r="E99" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2839,7 +2723,7 @@
         <v>163</v>
       </c>
       <c r="E100" t="s">
-        <v>253</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2856,7 +2740,7 @@
         <v>134</v>
       </c>
       <c r="E101" t="s">
-        <v>254</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/live_flo/live_flo_20220420_110013.xlsx
+++ b/Crawling/music/crawled_data/live_flo/live_flo_20220420_110013.xlsx
@@ -34,7 +34,7 @@
     <t>앨범</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-04-20</t>
